--- a/FOAD_Merise/ExercicesModeleConceptuel/GestionAeroport/AeroportMatrice.xlsx
+++ b/FOAD_Merise/ExercicesModeleConceptuel/GestionAeroport/AeroportMatrice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Merise\ExercicesModeleConceptuel\GestionAeroport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A81000-BFE2-41EA-8337-04E3CFA83449}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0876CA49-04A4-465D-A0E0-2EC8214F664E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9D3D80CD-C82B-4856-9072-1B64C00890E5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="31">
   <si>
     <t>Purchase_Date</t>
   </si>
@@ -89,9 +89,6 @@
     <t>Entité</t>
   </si>
   <si>
-    <t>mnémonique</t>
-  </si>
-  <si>
     <t>Planes</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
     <t>Pilots_ Authorized_Plane</t>
   </si>
   <si>
-    <t>Maintenacnce_Sheets</t>
-  </si>
-  <si>
     <t>Maintenance_Date</t>
   </si>
   <si>
@@ -120,6 +114,18 @@
   </si>
   <si>
     <t>Maintenance_Sheets</t>
+  </si>
+  <si>
+    <t>Owner_Name</t>
+  </si>
+  <si>
+    <t>Owner_Lame</t>
+  </si>
+  <si>
+    <t>Mnémonique</t>
+  </si>
+  <si>
+    <t>Maintenance_Object</t>
   </si>
 </sst>
 </file>
@@ -279,6 +285,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -287,18 +305,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -618,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A554CE4-49C5-43EF-A2B3-FBE17AED2E6C}">
   <dimension ref="B2:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,48 +639,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="11"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="10"/>
+      <c r="S2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="6"/>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="11"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="7"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="1" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="9"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>16</v>
@@ -716,10 +722,10 @@
         <v>11</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="S3" s="4" t="s">
         <v>12</v>
@@ -735,8 +741,8 @@
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
-        <v>19</v>
+      <c r="B4" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
@@ -766,7 +772,7 @@
       <c r="V4" s="3"/>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="9"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
@@ -795,8 +801,8 @@
       <c r="V5" s="3"/>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
-        <v>20</v>
+      <c r="B6" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>1</v>
@@ -826,7 +832,7 @@
       <c r="V6" s="3"/>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B7" s="11"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -857,7 +863,7 @@
       <c r="V7" s="3"/>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -888,7 +894,7 @@
       <c r="V8" s="3"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -919,11 +925,11 @@
       <c r="V9" s="3"/>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
-        <v>21</v>
+      <c r="B10" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -948,7 +954,7 @@
       <c r="V10" s="3"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,7 +983,7 @@
       <c r="V11" s="3"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1006,8 +1012,8 @@
       <c r="V12" s="3"/>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
-        <v>22</v>
+      <c r="B13" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
@@ -1039,7 +1045,7 @@
       <c r="V13" s="3"/>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B14" s="11"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,7 +1074,7 @@
       <c r="V14" s="3"/>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="11"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1097,7 +1103,7 @@
       <c r="V15" s="3"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1127,10 +1133,10 @@
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -1161,7 +1167,7 @@
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -1190,8 +1196,8 @@
       <c r="V18" s="3"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
-        <v>23</v>
+      <c r="B19" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>12</v>
@@ -1221,7 +1227,7 @@
       <c r="V19" s="3"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B20" s="11"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
@@ -1248,7 +1254,7 @@
       <c r="V20" s="3"/>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="1" t="s">
         <v>14</v>
       </c>
@@ -1275,8 +1281,8 @@
       <c r="V21" s="3"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
-        <v>24</v>
+      <c r="B22" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>15</v>
@@ -1308,7 +1314,7 @@
         <v>17</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>16</v>
@@ -1330,8 +1336,8 @@
       </c>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
-        <v>19</v>
+      <c r="B25" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>16</v>
@@ -1348,7 +1354,7 @@
       </c>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="1" t="s">
         <v>0</v>
       </c>
@@ -1364,8 +1370,8 @@
       </c>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B27" s="8" t="s">
-        <v>20</v>
+      <c r="B27" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>1</v>
@@ -1382,13 +1388,11 @@
       </c>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B28" s="11"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="3">
-        <v>1</v>
-      </c>
+      <c r="D28" s="3"/>
       <c r="E28" s="3">
         <v>1</v>
       </c>
@@ -1400,13 +1404,11 @@
       </c>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B29" s="11"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
+      <c r="D29" s="3"/>
       <c r="E29" s="3">
         <v>1</v>
       </c>
@@ -1418,13 +1420,11 @@
       </c>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B30" s="9"/>
+      <c r="B30" s="8"/>
       <c r="C30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
+      <c r="D30" s="3"/>
       <c r="E30" s="3">
         <v>1</v>
       </c>
@@ -1436,11 +1436,11 @@
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B31" s="8" t="s">
-        <v>21</v>
+      <c r="B31" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -1452,13 +1452,11 @@
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B32" s="11"/>
+      <c r="B32" s="7"/>
       <c r="C32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="3">
-        <v>1</v>
-      </c>
+      <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3">
         <v>1</v>
@@ -1468,13 +1466,11 @@
       <c r="I32" s="3"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="9"/>
+      <c r="B33" s="8"/>
       <c r="C33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="3">
-        <v>1</v>
-      </c>
+      <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3">
         <v>1</v>
@@ -1484,43 +1480,39 @@
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="8" t="s">
-        <v>22</v>
+      <c r="B34" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3">
         <v>1</v>
       </c>
-      <c r="G34" s="3">
-        <v>1</v>
-      </c>
-      <c r="H34" s="3">
-        <v>1</v>
-      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="11"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="3">
-        <v>1</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1</v>
-      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="11"/>
+      <c r="B36" s="7"/>
       <c r="C36" s="1" t="s">
         <v>10</v>
       </c>
@@ -1536,7 +1528,7 @@
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="9"/>
+      <c r="B37" s="8"/>
       <c r="C37" s="1" t="s">
         <v>11</v>
       </c>
@@ -1552,11 +1544,11 @@
       <c r="I37" s="3"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="8" t="s">
-        <v>25</v>
+      <c r="B38" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
@@ -1572,9 +1564,9 @@
       <c r="I38" s="3"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="9"/>
+      <c r="B39" s="8"/>
       <c r="C39" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D39" s="3">
         <v>1</v>
@@ -1590,8 +1582,8 @@
       <c r="I39" s="3"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="8" t="s">
-        <v>23</v>
+      <c r="B40" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>12</v>
@@ -1599,16 +1591,12 @@
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="3">
-        <v>1</v>
-      </c>
-      <c r="H40" s="3">
-        <v>1</v>
-      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="11"/>
+      <c r="B41" s="7"/>
       <c r="C41" s="1" t="s">
         <v>13</v>
       </c>
@@ -1622,7 +1610,7 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="9"/>
+      <c r="B42" s="8"/>
       <c r="C42" s="1" t="s">
         <v>14</v>
       </c>
@@ -1636,8 +1624,8 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="10" t="s">
-        <v>24</v>
+      <c r="B43" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>15</v>
@@ -1653,24 +1641,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B16"/>
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
